--- a/Input Data/max_turn.xlsx
+++ b/Input Data/max_turn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inver\OneDrive\Desktop\PER 105\Vehicle Controller Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inver\OneDrive\Desktop\PER 105\Vehicle Controller Files\Simulation Conditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35DC11E-7C07-4EA2-B574-533404DE10BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADDC57D-C0E5-4ED7-B175-61D52E427F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF02C6E6-7C03-4F57-88F0-FD147FC419EC}"/>
+    <workbookView xWindow="0" yWindow="624" windowWidth="17280" windowHeight="8964" xr2:uid="{BF02C6E6-7C03-4F57-88F0-FD147FC419EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44C769-8558-4087-85EA-24BCEBF1A080}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="C3">
         <v>60000</v>
@@ -537,7 +537,7 @@
         <v>300</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="C4">
         <v>60000</v>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
       <c r="C5">
         <v>60000</v>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-0.4</v>
       </c>
       <c r="C6">
         <v>60000</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>60000</v>
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
         <v>60000</v>
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
         <v>60000</v>
@@ -783,7 +783,7 @@
         <v>300</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>300</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>300</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>300</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>300</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>300</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>300</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
